--- a/output/Gardner.xlsx
+++ b/output/Gardner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Overburden</t>
+          <t>Tension</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -469,6 +469,16 @@
           <t>Overburden</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Pore Tension</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Pore Overburden</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,9 +500,15 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>1464.66</v>
+      </c>
+      <c r="H2" t="n">
         <v>8.595422535211268</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>1464.66</v>
+      </c>
+      <c r="J2" t="n">
         <v>8.595422535211268</v>
       </c>
     </row>
@@ -518,10 +534,16 @@
         <v>2.104101358029362</v>
       </c>
       <c r="G3" t="n">
-        <v>10.38811282995042</v>
+        <v>2212.668032779438</v>
       </c>
       <c r="H3" t="n">
         <v>10.38811282995042</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1830.825</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.595422535211268</v>
       </c>
     </row>
     <row r="4">
@@ -546,10 +568,16 @@
         <v>2.105968187438912</v>
       </c>
       <c r="G4" t="n">
-        <v>10.66451052232911</v>
+        <v>2362.402370906345</v>
       </c>
       <c r="H4" t="n">
         <v>10.66451052232911</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1904.058</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.595422535211268</v>
       </c>
     </row>
     <row r="5">
@@ -574,10 +602,16 @@
         <v>2.106400172074753</v>
       </c>
       <c r="G5" t="n">
-        <v>10.9205678279467</v>
+        <v>2512.16742314086</v>
       </c>
       <c r="H5" t="n">
         <v>10.9205678279467</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1977.291</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.595422535211268</v>
       </c>
     </row>
     <row r="6">
@@ -600,10 +634,16 @@
         <v>2.112600143716801</v>
       </c>
       <c r="G6" t="n">
-        <v>11.16018315459056</v>
+        <v>2662.373293359124</v>
       </c>
       <c r="H6" t="n">
         <v>11.16018315459056</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2050.524</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8.595422535211267</v>
       </c>
     </row>
     <row r="7">
@@ -626,10 +666,16 @@
         <v>2.120533867546739</v>
       </c>
       <c r="G7" t="n">
-        <v>11.38555630298566</v>
+        <v>2813.143251341697</v>
       </c>
       <c r="H7" t="n">
         <v>11.38555630298566</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2123.757</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.595422535211268</v>
       </c>
     </row>
     <row r="8">
@@ -652,10 +698,16 @@
         <v>2.124557123760459</v>
       </c>
       <c r="G8" t="n">
-        <v>11.59702372003547</v>
+        <v>2964.199262841066</v>
       </c>
       <c r="H8" t="n">
         <v>11.59702372003547</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2196.99</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8.595422535211268</v>
       </c>
     </row>
     <row r="9">
@@ -678,10 +730,16 @@
         <v>2.127018535943439</v>
       </c>
       <c r="G9" t="n">
-        <v>11.79551067979193</v>
+        <v>3115.430280746644</v>
       </c>
       <c r="H9" t="n">
         <v>11.79551067979193</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2270.223</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8.595422535211268</v>
       </c>
     </row>
     <row r="10">
@@ -704,10 +762,16 @@
         <v>2.133014110168146</v>
       </c>
       <c r="G10" t="n">
-        <v>11.98315575109888</v>
+        <v>3267.087583979599</v>
       </c>
       <c r="H10" t="n">
         <v>11.98315575109888</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2343.456000000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8.59542253521127</v>
       </c>
     </row>
     <row r="11">
@@ -730,10 +794,16 @@
         <v>2.133603584899049</v>
       </c>
       <c r="G11" t="n">
-        <v>12.15957746075516</v>
+        <v>3418.786798865922</v>
       </c>
       <c r="H11" t="n">
         <v>12.15957746075516</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2416.689000000001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.595422535211272</v>
       </c>
     </row>
     <row r="12">
@@ -756,10 +826,16 @@
         <v>2.133603584899049</v>
       </c>
       <c r="G12" t="n">
-        <v>12.3256214227846</v>
+        <v>3570.486013752244</v>
       </c>
       <c r="H12" t="n">
         <v>12.3256214227846</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2489.922000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8.59542253521127</v>
       </c>
     </row>
     <row r="13">
@@ -782,10 +858,16 @@
         <v>2.143600113241589</v>
       </c>
       <c r="G13" t="n">
-        <v>12.48456063649806</v>
+        <v>3722.895981803721</v>
       </c>
       <c r="H13" t="n">
         <v>12.48456063649806</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2563.155000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8.595422535211272</v>
       </c>
     </row>
     <row r="14">
@@ -808,10 +890,16 @@
         <v>2.16132050740179</v>
       </c>
       <c r="G14" t="n">
-        <v>12.63877761437138</v>
+        <v>3876.565869879988</v>
       </c>
       <c r="H14" t="n">
         <v>12.63877761437138</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2636.388000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8.595422535211272</v>
       </c>
     </row>
     <row r="15">
@@ -834,10 +922,16 @@
         <v>2.18408713573051</v>
       </c>
       <c r="G15" t="n">
-        <v>12.78979338037821</v>
+        <v>4031.854465230428</v>
       </c>
       <c r="H15" t="n">
         <v>12.78979338037821</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2709.621000000001</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8.595422535211272</v>
       </c>
     </row>
     <row r="16">
@@ -860,10 +954,16 @@
         <v>2.205313315850969</v>
       </c>
       <c r="G16" t="n">
-        <v>12.93752236838223</v>
+        <v>4188.652241987432</v>
       </c>
       <c r="H16" t="n">
         <v>12.93752236838223</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2782.854000000002</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8.595422535211274</v>
       </c>
     </row>
     <row r="17">
@@ -886,10 +986,16 @@
         <v>2.224150189538446</v>
       </c>
       <c r="G17" t="n">
-        <v>13.0817061528338</v>
+        <v>4346.789320463616</v>
       </c>
       <c r="H17" t="n">
         <v>13.0817061528338</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2856.087000000002</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8.595422535211274</v>
       </c>
     </row>
     <row r="18">
@@ -912,10 +1018,16 @@
         <v>2.234062468605028</v>
       </c>
       <c r="G18" t="n">
-        <v>13.22074871473425</v>
+        <v>4505.631161981433</v>
       </c>
       <c r="H18" t="n">
         <v>13.22074871473425</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2929.320000000002</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8.595422535211274</v>
       </c>
     </row>
     <row r="19">
@@ -938,10 +1050,16 @@
         <v>2.229262372767375</v>
       </c>
       <c r="G19" t="n">
-        <v>13.35203170927858</v>
+        <v>4664.131716685193</v>
       </c>
       <c r="H19" t="n">
         <v>13.35203170927858</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3002.553000000002</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8.595422535211274</v>
       </c>
     </row>
     <row r="20">
@@ -964,10 +1082,16 @@
         <v>2.217126185288531</v>
       </c>
       <c r="G20" t="n">
-        <v>13.47465176743575</v>
+        <v>4821.769388459208</v>
       </c>
       <c r="H20" t="n">
         <v>13.47465176743575</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3075.786000000002</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8.595422535211275</v>
       </c>
     </row>
     <row r="21">
@@ -990,10 +1114,16 @@
         <v>2.214098898589483</v>
       </c>
       <c r="G21" t="n">
-        <v>13.59098105729043</v>
+        <v>4979.191820148921</v>
       </c>
       <c r="H21" t="n">
         <v>13.59098105729043</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3149.019000000003</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8.595422535211274</v>
       </c>
     </row>
     <row r="22">
@@ -1016,10 +1146,16 @@
         <v>2.218020512518627</v>
       </c>
       <c r="G22" t="n">
-        <v>13.702766428161</v>
+        <v>5136.893078588995</v>
       </c>
       <c r="H22" t="n">
         <v>13.702766428161</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3222.252000000003</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8.595422535211275</v>
       </c>
     </row>
     <row r="23">
@@ -1042,10 +1178,16 @@
         <v>2.227978815861938</v>
       </c>
       <c r="G23" t="n">
-        <v>13.81143028794152</v>
+        <v>5295.302372396779</v>
       </c>
       <c r="H23" t="n">
         <v>13.81143028794152</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3295.485000000003</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8.595422535211275</v>
       </c>
     </row>
     <row r="24">
@@ -1068,10 +1210,16 @@
         <v>2.246674688487968</v>
       </c>
       <c r="G24" t="n">
-        <v>13.91876133585495</v>
+        <v>5455.040942748274</v>
       </c>
       <c r="H24" t="n">
         <v>13.91876133585495</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3368.718000000003</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8.595422535211275</v>
       </c>
     </row>
     <row r="25">
@@ -1094,10 +1242,16 @@
         <v>2.263003905511014</v>
       </c>
       <c r="G25" t="n">
-        <v>14.02442443419765</v>
+        <v>5615.940520430107</v>
       </c>
       <c r="H25" t="n">
         <v>14.02442443419765</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3441.951000000003</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8.595422535211275</v>
       </c>
     </row>
     <row r="26">
@@ -1120,10 +1274,16 @@
         <v>2.27220248510054</v>
       </c>
       <c r="G26" t="n">
-        <v>14.12728412832736</v>
+        <v>5777.494117120755</v>
       </c>
       <c r="H26" t="n">
         <v>14.12728412832736</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3515.184000000003</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.595422535211275</v>
       </c>
     </row>
     <row r="27">
@@ -1146,10 +1306,16 @@
         <v>2.281797372313588</v>
       </c>
       <c r="G27" t="n">
-        <v>14.22757954942093</v>
+        <v>5939.729910292251</v>
       </c>
       <c r="H27" t="n">
         <v>14.22757954942093</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3588.417000000004</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8.595422535211275</v>
       </c>
     </row>
     <row r="28">
@@ -1172,10 +1338,16 @@
         <v>2.279533579574709</v>
       </c>
       <c r="G28" t="n">
-        <v>14.32348532347421</v>
+        <v>6101.804747800013</v>
       </c>
       <c r="H28" t="n">
         <v>14.32348532347421</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3661.650000000004</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8.595422535211277</v>
       </c>
     </row>
     <row r="29">
@@ -1198,10 +1370,16 @@
         <v>2.284279839127503</v>
       </c>
       <c r="G29" t="n">
-        <v>14.41640671168641</v>
+        <v>6264.217044361978</v>
       </c>
       <c r="H29" t="n">
         <v>14.41640671168641</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3734.883000000004</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8.595422535211277</v>
       </c>
     </row>
     <row r="30">
@@ -1224,10 +1402,16 @@
         <v>2.288029011685562</v>
       </c>
       <c r="G30" t="n">
-        <v>14.50635587552551</v>
+        <v>6426.895907092821</v>
       </c>
       <c r="H30" t="n">
         <v>14.50635587552551</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3808.116000000004</v>
+      </c>
+      <c r="J30" t="n">
+        <v>8.595422535211277</v>
       </c>
     </row>
     <row r="31">
@@ -1250,10 +1434,16 @@
         <v>2.300752555017257</v>
       </c>
       <c r="G31" t="n">
-        <v>14.59491410610893</v>
+        <v>6590.479413754549</v>
       </c>
       <c r="H31" t="n">
         <v>14.59491410610893</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3881.349000000004</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8.595422535211277</v>
       </c>
     </row>
     <row r="32">
@@ -1276,10 +1466,16 @@
         <v>2.305073236121453</v>
       </c>
       <c r="G32" t="n">
-        <v>14.68086011311681</v>
+        <v>6754.370120842784</v>
       </c>
       <c r="H32" t="n">
         <v>14.68086011311681</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3954.582000000004</v>
+      </c>
+      <c r="J32" t="n">
+        <v>8.595422535211277</v>
       </c>
     </row>
     <row r="33">
@@ -1302,10 +1498,16 @@
         <v>2.326621433083323</v>
       </c>
       <c r="G33" t="n">
-        <v>14.76695028752669</v>
+        <v>6919.792904735008</v>
       </c>
       <c r="H33" t="n">
         <v>14.76695028752669</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4027.815000000005</v>
+      </c>
+      <c r="J33" t="n">
+        <v>8.595422535211277</v>
       </c>
     </row>
     <row r="34">
@@ -1328,10 +1530,16 @@
         <v>2.343759048260646</v>
       </c>
       <c r="G34" t="n">
-        <v>14.85251964509209</v>
+        <v>7086.43417306634</v>
       </c>
       <c r="H34" t="n">
         <v>14.85251964509209</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4101.048000000004</v>
+      </c>
+      <c r="J34" t="n">
+        <v>8.595422535211277</v>
       </c>
     </row>
     <row r="35">
@@ -1354,10 +1562,16 @@
         <v>2.368456541320863</v>
       </c>
       <c r="G35" t="n">
-        <v>14.93870239921393</v>
+        <v>7254.831433154253</v>
       </c>
       <c r="H35" t="n">
         <v>14.93870239921393</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4174.281000000004</v>
+      </c>
+      <c r="J35" t="n">
+        <v>8.595422535211277</v>
       </c>
     </row>
     <row r="36">
@@ -1380,10 +1594,16 @@
         <v>2.377744292178102</v>
       </c>
       <c r="G36" t="n">
-        <v>15.02324966069313</v>
+        <v>7423.889052328116</v>
       </c>
       <c r="H36" t="n">
         <v>15.02324966069313</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4247.514000000005</v>
+      </c>
+      <c r="J36" t="n">
+        <v>8.595422535211277</v>
       </c>
     </row>
     <row r="37">
@@ -1406,10 +1626,16 @@
         <v>2.388252499213599</v>
       </c>
       <c r="G37" t="n">
-        <v>15.10641721377855</v>
+        <v>7593.693805022203</v>
       </c>
       <c r="H37" t="n">
         <v>15.10641721377855</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4320.747000000005</v>
+      </c>
+      <c r="J37" t="n">
+        <v>8.595422535211277</v>
       </c>
     </row>
     <row r="38">
@@ -1432,10 +1658,16 @@
         <v>2.386183850673146</v>
       </c>
       <c r="G38" t="n">
-        <v>15.18652479813197</v>
+        <v>7763.351476805064</v>
       </c>
       <c r="H38" t="n">
         <v>15.18652479813197</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4393.980000000005</v>
+      </c>
+      <c r="J38" t="n">
+        <v>8.595422535211277</v>
       </c>
     </row>
     <row r="39">
@@ -1458,10 +1690,16 @@
         <v>2.368456541320863</v>
       </c>
       <c r="G39" t="n">
-        <v>15.26158072980254</v>
+        <v>7931.748736892977</v>
       </c>
       <c r="H39" t="n">
         <v>15.26158072980254</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4467.213000000005</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8.595422535211277</v>
       </c>
     </row>
     <row r="40">
@@ -1484,10 +1722,16 @@
         <v>2.346835630601289</v>
       </c>
       <c r="G40" t="n">
-        <v>15.33130537299093</v>
+        <v>8098.608750228728</v>
       </c>
       <c r="H40" t="n">
         <v>15.33130537299093</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4540.446000000005</v>
+      </c>
+      <c r="J40" t="n">
+        <v>8.595422535211277</v>
       </c>
     </row>
     <row r="41">
@@ -1510,10 +1754,16 @@
         <v>2.337898725743358</v>
       </c>
       <c r="G41" t="n">
-        <v>15.39763274019875</v>
+        <v>8264.833349629082</v>
       </c>
       <c r="H41" t="n">
         <v>15.39763274019875</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4613.679000000006</v>
+      </c>
+      <c r="J41" t="n">
+        <v>8.595422535211277</v>
       </c>
     </row>
     <row r="42">
@@ -1536,10 +1786,16 @@
         <v>2.336735418060877</v>
       </c>
       <c r="G42" t="n">
-        <v>15.4617356914855</v>
+        <v>8430.97523785321</v>
       </c>
       <c r="H42" t="n">
         <v>15.4617356914855</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4686.912000000006</v>
+      </c>
+      <c r="J42" t="n">
+        <v>8.595422535211279</v>
       </c>
     </row>
     <row r="43">
@@ -1562,10 +1818,16 @@
         <v>2.328215868404596</v>
       </c>
       <c r="G43" t="n">
-        <v>15.52277245593496</v>
+        <v>8596.511386096778</v>
       </c>
       <c r="H43" t="n">
         <v>15.52277245593496</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4760.145000000006</v>
+      </c>
+      <c r="J43" t="n">
+        <v>8.595422535211279</v>
       </c>
     </row>
     <row r="44">
@@ -1588,10 +1850,16 @@
         <v>2.338131735037699</v>
       </c>
       <c r="G44" t="n">
-        <v>15.58321338820949</v>
+        <v>8762.752552457958</v>
       </c>
       <c r="H44" t="n">
         <v>15.58321338820949</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4833.378000000006</v>
+      </c>
+      <c r="J44" t="n">
+        <v>8.595422535211279</v>
       </c>
     </row>
     <row r="45">
@@ -1614,10 +1882,16 @@
         <v>2.354978666643824</v>
       </c>
       <c r="G45" t="n">
-        <v>15.64394845430652</v>
+        <v>8930.191535656333</v>
       </c>
       <c r="H45" t="n">
         <v>15.64394845430652</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4906.611000000006</v>
+      </c>
+      <c r="J45" t="n">
+        <v>8.595422535211277</v>
       </c>
     </row>
     <row r="46">
@@ -1640,10 +1914,16 @@
         <v>2.360323747001738</v>
       </c>
       <c r="G46" t="n">
-        <v>15.7035531518713</v>
+        <v>9098.010554068156</v>
       </c>
       <c r="H46" t="n">
         <v>15.7035531518713</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4979.844000000006</v>
+      </c>
+      <c r="J46" t="n">
+        <v>8.595422535211279</v>
       </c>
     </row>
     <row r="47">
@@ -1666,10 +1946,16 @@
         <v>2.358616459268486</v>
       </c>
       <c r="G47" t="n">
-        <v>15.76122369245789</v>
+        <v>9265.708184322146</v>
       </c>
       <c r="H47" t="n">
         <v>15.76122369245789</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5053.077000000007</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8.595422535211279</v>
       </c>
     </row>
     <row r="48">
@@ -1692,10 +1978,16 @@
         <v>2.365482955368691</v>
       </c>
       <c r="G48" t="n">
-        <v>15.81806509464933</v>
+        <v>9433.89402244886</v>
       </c>
       <c r="H48" t="n">
         <v>15.81806509464933</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5126.310000000007</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8.595422535211279</v>
       </c>
     </row>
     <row r="49">
@@ -1718,10 +2010,16 @@
         <v>2.364249454946518</v>
       </c>
       <c r="G49" t="n">
-        <v>15.87316034962567</v>
+        <v>9601.992158695557</v>
       </c>
       <c r="H49" t="n">
         <v>15.87316034962567</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5199.543000000007</v>
+      </c>
+      <c r="J49" t="n">
+        <v>8.595422535211279</v>
       </c>
     </row>
     <row r="50">
@@ -1744,10 +2042,16 @@
         <v>2.35934739777653</v>
       </c>
       <c r="G50" t="n">
-        <v>15.92615701401517</v>
+        <v>9769.741758677468</v>
       </c>
       <c r="H50" t="n">
         <v>15.92615701401517</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5272.776000000007</v>
+      </c>
+      <c r="J50" t="n">
+        <v>8.595422535211281</v>
       </c>
     </row>
     <row r="51">
@@ -1770,11 +2074,17 @@
         <v>2.369451900456855</v>
       </c>
       <c r="G51" t="n">
-        <v>15.97885682166048</v>
+        <v>9938.20978879995</v>
       </c>
       <c r="H51" t="n">
         <v>15.97885682166048</v>
       </c>
+      <c r="I51" t="n">
+        <v>5346.009000000007</v>
+      </c>
+      <c r="J51" t="n">
+        <v>8.595422535211279</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1796,10 +2106,16 @@
         <v>2.375468331194337</v>
       </c>
       <c r="G52" t="n">
-        <v>16.03081079042613</v>
+        <v>10107.10558714787</v>
       </c>
       <c r="H52" t="n">
         <v>16.03081079042613</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5419.242000000007</v>
+      </c>
+      <c r="J52" t="n">
+        <v>8.595422535211279</v>
       </c>
     </row>
     <row r="53">
@@ -1822,10 +2138,16 @@
         <v>2.380285978641521</v>
       </c>
       <c r="G53" t="n">
-        <v>16.08191536812094</v>
+        <v>10276.34392022928</v>
       </c>
       <c r="H53" t="n">
         <v>16.08191536812094</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5492.475000000008</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8.595422535211279</v>
       </c>
     </row>
     <row r="54">
@@ -1848,10 +2170,16 @@
         <v>2.379013438235603</v>
       </c>
       <c r="G54" t="n">
-        <v>16.13153535904348</v>
+        <v>10445.49177568783</v>
       </c>
       <c r="H54" t="n">
         <v>16.13153535904348</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5565.708000000008</v>
+      </c>
+      <c r="J54" t="n">
+        <v>8.595422535211281</v>
       </c>
     </row>
     <row r="55">
@@ -1874,10 +2202,16 @@
         <v>2.377997850623954</v>
       </c>
       <c r="G55" t="n">
-        <v>16.17975645214803</v>
+        <v>10614.56742286719</v>
       </c>
       <c r="H55" t="n">
         <v>16.17975645214803</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5638.941000000008</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8.595422535211281</v>
       </c>
     </row>
     <row r="56">
@@ -1900,10 +2234,16 @@
         <v>2.366175123096125</v>
       </c>
       <c r="G56" t="n">
-        <v>16.22547621602162</v>
+        <v>10782.80247411933</v>
       </c>
       <c r="H56" t="n">
         <v>16.22547621602162</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5712.174000000008</v>
+      </c>
+      <c r="J56" t="n">
+        <v>8.595422535211281</v>
       </c>
     </row>
     <row r="57">
@@ -1926,10 +2266,16 @@
         <v>2.359262063245437</v>
       </c>
       <c r="G57" t="n">
-        <v>16.26930826471754</v>
+        <v>10950.54600681608</v>
       </c>
       <c r="H57" t="n">
         <v>16.26930826471754</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5785.407000000008</v>
+      </c>
+      <c r="J57" t="n">
+        <v>8.595422535211281</v>
       </c>
     </row>
     <row r="58">
@@ -1952,10 +2298,16 @@
         <v>2.355716080327943</v>
       </c>
       <c r="G58" t="n">
-        <v>16.31167461873151</v>
+        <v>11118.0374201274</v>
       </c>
       <c r="H58" t="n">
         <v>16.31167461873151</v>
+      </c>
+      <c r="I58" t="n">
+        <v>5858.640000000009</v>
+      </c>
+      <c r="J58" t="n">
+        <v>8.595422535211279</v>
       </c>
     </row>
     <row r="59">
@@ -1978,10 +2330,16 @@
         <v>2.357255063919684</v>
       </c>
       <c r="G59" t="n">
-        <v>16.35315344457788</v>
+        <v>11285.63825517209</v>
       </c>
       <c r="H59" t="n">
         <v>16.35315344457788</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5931.873000000009</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8.595422535211281</v>
       </c>
     </row>
     <row r="60">
@@ -2004,10 +2362,16 @@
         <v>2.357570752010606</v>
       </c>
       <c r="G60" t="n">
-        <v>16.39365271905422</v>
+        <v>11453.26153564004</v>
       </c>
       <c r="H60" t="n">
         <v>16.39365271905422</v>
+      </c>
+      <c r="I60" t="n">
+        <v>6005.106000000009</v>
+      </c>
+      <c r="J60" t="n">
+        <v>8.595422535211281</v>
       </c>
     </row>
     <row r="61">
@@ -2030,10 +2394,16 @@
         <v>2.364311053619236</v>
       </c>
       <c r="G61" t="n">
-        <v>16.43385379765876</v>
+        <v>11621.36405155237</v>
       </c>
       <c r="H61" t="n">
         <v>16.43385379765876</v>
+      </c>
+      <c r="I61" t="n">
+        <v>6078.339000000009</v>
+      </c>
+      <c r="J61" t="n">
+        <v>8.595422535211281</v>
       </c>
     </row>
     <row r="62">
@@ -2056,10 +2426,16 @@
         <v>2.367835502239419</v>
       </c>
       <c r="G62" t="n">
-        <v>16.47344784786719</v>
+        <v>11789.71715576159</v>
       </c>
       <c r="H62" t="n">
         <v>16.47344784786719</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6151.572000000009</v>
+      </c>
+      <c r="J62" t="n">
+        <v>8.595422535211281</v>
       </c>
     </row>
     <row r="63">
@@ -2082,10 +2458,16 @@
         <v>2.370199794253107</v>
       </c>
       <c r="G63" t="n">
-        <v>16.512342393169</v>
+        <v>11958.23836113299</v>
       </c>
       <c r="H63" t="n">
         <v>16.512342393169</v>
+      </c>
+      <c r="I63" t="n">
+        <v>6224.805000000009</v>
+      </c>
+      <c r="J63" t="n">
+        <v>8.595422535211281</v>
       </c>
     </row>
     <row r="64">
@@ -2108,10 +2490,16 @@
         <v>2.367599720757558</v>
       </c>
       <c r="G64" t="n">
-        <v>16.55008011420303</v>
+        <v>12126.57470127885</v>
       </c>
       <c r="H64" t="n">
         <v>16.55008011420303</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6298.03800000001</v>
+      </c>
+      <c r="J64" t="n">
+        <v>8.595422535211281</v>
       </c>
     </row>
     <row r="65">
@@ -2134,10 +2522,16 @@
         <v>2.367029367132512</v>
       </c>
       <c r="G65" t="n">
-        <v>16.58689559290104</v>
+        <v>12294.87048928197</v>
       </c>
       <c r="H65" t="n">
         <v>16.58689559290104</v>
+      </c>
+      <c r="I65" t="n">
+        <v>6371.27100000001</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8.595422535211281</v>
       </c>
     </row>
     <row r="66">
@@ -2160,10 +2554,16 @@
         <v>2.36091052734464</v>
       </c>
       <c r="G66" t="n">
-        <v>16.62229410448167</v>
+        <v>12462.73122777617</v>
       </c>
       <c r="H66" t="n">
         <v>16.62229410448167</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6444.50400000001</v>
+      </c>
+      <c r="J66" t="n">
+        <v>8.595422535211281</v>
       </c>
     </row>
     <row r="67">
@@ -2186,10 +2586,16 @@
         <v>2.359195025510136</v>
       </c>
       <c r="G67" t="n">
-        <v>16.65673629014341</v>
+        <v>12630.46999408994</v>
       </c>
       <c r="H67" t="n">
         <v>16.65673629014341</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6517.73700000001</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8.595422535211281</v>
       </c>
     </row>
     <row r="68">
@@ -2212,10 +2618,16 @@
         <v>2.354817636955259</v>
       </c>
       <c r="G68" t="n">
-        <v>16.69000720928203</v>
+        <v>12797.89752807746</v>
       </c>
       <c r="H68" t="n">
         <v>16.69000720928203</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6590.97000000001</v>
+      </c>
+      <c r="J68" t="n">
+        <v>8.595422535211281</v>
       </c>
     </row>
   </sheetData>
